--- a/bh3/540125277447557623_2021-06-25_12-41-56.xlsx
+++ b/bh3/540125277447557623_2021-06-25_12-41-56.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -551,10 +567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-02 06:23:32</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44379.26634259259</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -626,10 +640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-02 06:12:34</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44379.25872685185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -701,10 +713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-01 18:02:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44378.75186342592</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -780,10 +790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-30 11:19:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44377.47207175926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -859,10 +867,8 @@
           <t>4816809881</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-30 08:53:02</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44377.37016203703</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -946,10 +952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-30 07:51:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44377.32711805555</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1021,10 +1025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-30 07:44:36</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44377.32263888889</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1123,10 +1125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-29 21:41:18</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44376.90368055556</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1214,10 +1214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-29 07:22:55</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44376.30758101852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1289,10 +1287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-29 07:16:54</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44376.30340277778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1364,10 +1360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-28 07:34:17</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44375.31547453703</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1451,10 +1445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-28 07:23:10</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44375.30775462963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1526,10 +1518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-28 02:11:43</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44375.09146990741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1593,10 +1583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-27 22:37:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44374.94251157407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1675,10 +1663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-27 16:01:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44374.6678125</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1750,10 +1736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:51:40</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44374.3275462963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1827,10 +1811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:43:17</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44374.32172453704</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1929,10 +1911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-26 18:58:19</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44373.79049768519</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2008,10 +1988,8 @@
           <t>4788519491</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-26 11:37:51</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44373.48461805555</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2077,10 +2055,8 @@
           <t>4793364835</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-26 09:23:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44373.39143518519</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2152,10 +2128,8 @@
           <t>4793362229</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-26 09:21:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44373.39</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2227,10 +2201,8 @@
           <t>4793365312</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-26 09:20:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44373.38915509259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2317,10 +2289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:35:25</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44373.35792824074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2408,10 +2378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:10:52</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44373.34087962963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2485,10 +2453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:04:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44373.33660879629</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2561,10 +2527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-26 07:45:07</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44373.32299768519</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2628,10 +2592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-26 06:05:32</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44373.2538425926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2734,10 +2696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-26 06:04:36</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44373.25319444444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2813,10 +2773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-26 01:15:37</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44373.05251157407</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2884,10 +2842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-26 00:36:59</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44373.02568287037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2963,10 +2919,8 @@
           <t>4791831238</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-25 23:19:46</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44372.97206018519</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3034,10 +2988,8 @@
           <t>4789085546</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-25 22:27:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44372.93604166667</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3101,10 +3053,8 @@
           <t>4791447674</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-25 22:25:15</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44372.93420138889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3168,10 +3118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:09:34</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44372.88164351852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3235,10 +3183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:06:45</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44372.8796875</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3302,10 +3248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:35:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44372.85815972222</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3369,10 +3313,8 @@
           <t>4790587885</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:09:14</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44372.83974537037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3440,10 +3382,8 @@
           <t>4790587885</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:07:48</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44372.83875</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3515,10 +3455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:04:27</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44372.83642361111</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3586,10 +3524,8 @@
           <t>4790521784</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:56:23</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44372.83082175926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3661,10 +3597,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:54:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44372.82962962963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3740,10 +3674,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:42:59</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44372.8215162037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3807,10 +3739,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:42:48</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44372.82138888889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3874,10 +3804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:37:17</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44372.81755787037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3945,10 +3873,8 @@
           <t>4790381425</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:32:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44372.8140162037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4024,10 +3950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:29:02</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44372.81182870371</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4103,10 +4027,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:27:29</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44372.81075231481</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4182,10 +4104,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:22:43</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44372.80744212963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4256,10 +4176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:21:31</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44372.80660879629</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4319,10 +4237,8 @@
           <t>4789682154</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:18:54</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44372.80479166667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4390,10 +4306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:15:38</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44372.80252314815</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4465,10 +4379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:12:13</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44372.80015046296</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4528,10 +4440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:11:09</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44372.79940972223</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4591,10 +4501,8 @@
           <t>4790225693</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:07:28</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44372.79685185185</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4662,10 +4570,8 @@
           <t>4789682154</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:56:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44372.78924768518</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4737,10 +4643,8 @@
           <t>4790100171</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:47:15</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44372.7828125</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4842,10 +4746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:47:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44372.78265046296</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4906,10 +4808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:53</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44372.77908564815</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4981,10 +4881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:50</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44372.77905092593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5056,10 +4954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44372.77901620371</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5135,10 +5031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:43</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44372.77896990741</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5210,10 +5104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:34:37</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44372.77403935185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5292,10 +5184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:24:47</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44372.76721064815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5359,10 +5249,8 @@
           <t>4789947325</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:23:03</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44372.76600694445</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5433,10 +5321,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:17:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44372.76185185185</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5500,10 +5386,8 @@
           <t>4789682154</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:15:07</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44372.76049768519</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5571,10 +5455,8 @@
           <t>4789682154</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:13:53</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44372.7596412037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5642,10 +5524,8 @@
           <t>4789820736</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:01:52</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44372.75129629629</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5713,10 +5593,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:00:36</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44372.75041666667</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5784,10 +5662,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:59:42</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44372.74979166667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5855,10 +5731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:59:11</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44372.74943287037</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5926,10 +5800,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:55:55</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44372.74716435185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5997,10 +5869,8 @@
           <t>4789703629</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:42:34</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44372.73789351852</v>
       </c>
       <c r="I74" t="n">
         <v>4</v>
@@ -6068,10 +5938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:42:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44372.73767361111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6150,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:37:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44372.73453703704</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6221,10 +6087,8 @@
           <t>4789682154</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:37:39</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44372.73447916667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6296,10 +6160,8 @@
           <t>4788981325</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:36:01</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44372.73334490741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6367,10 +6229,8 @@
           <t>4789670205</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:35:19</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44372.7328587963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6442,10 +6302,8 @@
           <t>4788981325</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:35:16</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44372.73282407408</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6513,10 +6371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:26:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44372.72640046296</v>
       </c>
       <c r="I81" t="n">
         <v>7</v>
@@ -6580,10 +6436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:08:38</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44372.7143287037</v>
       </c>
       <c r="I82" t="n">
         <v>19</v>
@@ -6652,10 +6506,8 @@
           <t>4788833579</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:07:27</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44372.71350694444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6727,10 +6579,8 @@
           <t>4788449893</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:06:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44372.71303240741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6806,10 +6656,8 @@
           <t>4789075380</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:05:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44372.71246527778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6881,10 +6729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:59:44</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44372.70814814815</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6952,10 +6798,8 @@
           <t>4789267507</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:48:32</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44372.70037037037</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -7027,10 +6871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:40:43</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44372.69494212963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7108,10 +6950,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:37:01</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44372.69237268518</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7175,10 +7015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:33:44</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44372.69009259259</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7242,10 +7080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:31:19</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44372.68841435185</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7313,10 +7149,8 @@
           <t>4789336820</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:28:01</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44372.68612268518</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7388,10 +7222,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:24:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44372.68390046297</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7459,10 +7291,8 @@
           <t>4789075380</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:24:26</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44372.68363425926</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7538,10 +7368,8 @@
           <t>4789317402</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:24:13</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44372.6834837963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7613,10 +7441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:21:53</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44372.68186342593</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7688,10 +7514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:19:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44372.68040509259</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7759,10 +7583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:18:55</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44372.67980324074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7830,10 +7652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:13:11</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44372.67582175926</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7901,10 +7721,8 @@
           <t>4788510163</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:12:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44372.67508101852</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7964,10 +7782,8 @@
           <t>4789259283</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:11:25</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44372.67459490741</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -8035,10 +7851,8 @@
           <t>4789267507</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:11:16</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44372.67449074074</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8121,10 +7935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:10:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44372.67424768519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8192,10 +8004,8 @@
           <t>4789266932</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:10:52</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44372.67421296296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8255,10 +8065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:09:21</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44372.67315972222</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -8326,10 +8134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:03:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44372.66892361111</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8397,10 +8203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:00:04</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44372.66671296296</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8468,10 +8272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:57:36</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44372.665</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8547,10 +8349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:55:46</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44372.66372685185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8622,10 +8422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:53:51</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44372.66239583334</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8701,10 +8499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:47:43</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44372.65813657407</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8764,10 +8560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:43:39</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44372.6553125</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8843,10 +8637,8 @@
           <t>4788399872</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:38:50</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44372.6519675926</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8914,10 +8706,8 @@
           <t>4789062318</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:37:19</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44372.65091435185</v>
       </c>
       <c r="I114" t="n">
         <v>8</v>
@@ -8999,10 +8789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:37:09</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44372.65079861111</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9076,10 +8864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:36:12</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44372.65013888889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9139,10 +8925,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:34:25</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44372.64890046296</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9210,10 +8994,8 @@
           <t>4789075380</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:34:22</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44372.64886574074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9281,10 +9063,8 @@
           <t>4789107450</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:32:51</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44372.6478125</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9356,10 +9136,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:32:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44372.64733796296</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9423,10 +9201,8 @@
           <t>4789092867</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:31:52</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44372.64712962963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9494,10 +9270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:30:46</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44372.64636574074</v>
       </c>
       <c r="I122" t="n">
         <v>41</v>
@@ -9565,10 +9339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:30:30</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44372.64618055556</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9636,10 +9408,8 @@
           <t>4789092867</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:29:24</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44372.64541666667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9699,10 +9469,8 @@
           <t>4789085546</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:29</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44372.6433912037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9762,10 +9530,8 @@
           <t>4789085311</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:19</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44372.64327546296</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9833,10 +9599,8 @@
           <t>4789075380</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:23:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44372.64144675926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9900,10 +9664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:23:37</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44372.64140046296</v>
       </c>
       <c r="I128" t="n">
         <v>5</v>
@@ -9963,10 +9725,8 @@
           <t>4789070861</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:23:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44372.64098379629</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10026,10 +9786,8 @@
           <t>4789059405</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:21:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44372.64021990741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10093,10 +9851,8 @@
           <t>4789062318</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:21:16</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44372.63976851852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10156,10 +9912,8 @@
           <t>4789065199</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:20:07</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44372.63896990741</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10235,10 +9989,8 @@
           <t>4789043464</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:17:21</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44372.63704861111</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10302,10 +10054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:11:25</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44372.63292824074</v>
       </c>
       <c r="I134" t="n">
         <v>20</v>
@@ -10373,10 +10123,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:09:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44372.6315625</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10452,10 +10200,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:08:08</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44372.63064814815</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10518,10 +10264,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:06:15</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44372.62934027778</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10581,10 +10325,8 @@
           <t>4788999072</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:06:08</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44372.62925925926</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10652,10 +10394,8 @@
           <t>4789002407</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44372.62877314815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10723,10 +10463,8 @@
           <t>4789001114</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:27</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44372.62809027778</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10794,10 +10532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:03:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44372.6274537037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10872,10 +10608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:01:14</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44372.62585648148</v>
       </c>
       <c r="I142" t="n">
         <v>22</v>
@@ -10953,10 +10687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:01:08</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44372.62578703704</v>
       </c>
       <c r="I143" t="n">
         <v>6</v>
@@ -11016,10 +10748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:01:01</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44372.62570601852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11079,10 +10809,8 @@
           <t>4788981325</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:00:16</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44372.62518518518</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11154,10 +10882,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:57:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44372.62302083334</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11233,10 +10959,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:55:21</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44372.62177083334</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11300,10 +11024,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:54:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44372.62099537037</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11367,10 +11089,8 @@
           <t>4788957584</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:43</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44372.62063657407</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11446,10 +11166,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44372.62049768519</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
@@ -11513,10 +11231,8 @@
           <t>4788944683</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:51:22</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44372.61900462963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11576,10 +11292,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:51:04</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44372.61879629629</v>
       </c>
       <c r="I152" t="n">
         <v>4</v>
@@ -11647,10 +11361,8 @@
           <t>4788937684</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:49:40</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44372.61782407408</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11710,10 +11422,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:48:07</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44372.61674768518</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11773,10 +11483,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:47:41</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44372.61644675926</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11836,10 +11544,8 @@
           <t>4788929746</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:47:20</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44372.61620370371</v>
       </c>
       <c r="I156" t="n">
         <v>4</v>
@@ -11915,10 +11621,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:43:44</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44372.6137037037</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11983,10 +11687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:40:16</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44372.61129629629</v>
       </c>
       <c r="I158" t="n">
         <v>26</v>
@@ -12054,10 +11756,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:39:13</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44372.61056712963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12121,10 +11821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:38:53</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44372.61033564815</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12192,10 +11890,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:37:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44372.60951388889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12259,10 +11955,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:37:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44372.60938657408</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -12334,10 +12028,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:37:26</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44372.6093287037</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12413,10 +12105,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:36:15</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44372.60850694445</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12480,10 +12170,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:59</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44372.60832175926</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12543,10 +12231,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:55</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44372.60827546296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12610,10 +12296,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:24</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44372.60791666667</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -12689,10 +12373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:19</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44372.6078587963</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12765,10 +12447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:33:48</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44372.60680555556</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12837,10 +12517,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:33:01</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44372.60626157407</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12904,10 +12582,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:54</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44372.60479166666</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12971,10 +12647,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:21</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44372.60440972223</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13046,10 +12720,8 @@
           <t>4788863122</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:14</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44372.6043287037</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13113,10 +12785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:26:28</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44372.60171296296</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13180,10 +12850,8 @@
           <t>4788847597</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:25:53</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44372.60130787037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13259,10 +12927,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:53</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44372.59922453704</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13338,10 +13004,8 @@
           <t>4788833579</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44372.5991087963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13409,10 +13073,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:21:04</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44372.59796296297</v>
       </c>
       <c r="I178" t="n">
         <v>4</v>
@@ -13488,10 +13150,8 @@
           <t>4788814927</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:59</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44372.59512731482</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13555,10 +13215,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:15:13</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44372.59390046296</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13622,10 +13280,8 @@
           <t>4788802809</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:21</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44372.59329861111</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13693,10 +13349,8 @@
           <t>4788806485</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:01</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44372.59306712963</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
@@ -13768,10 +13422,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:25</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44372.59265046296</v>
       </c>
       <c r="I183" t="n">
         <v>5</v>
@@ -13847,10 +13499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:20</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44372.59259259259</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13922,10 +13572,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:19</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44372.59258101852</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13989,10 +13637,8 @@
           <t>4788805161</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:05</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44372.59241898148</v>
       </c>
       <c r="I186" t="n">
         <v>8</v>
@@ -14068,10 +13714,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:12:43</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44372.59216435185</v>
       </c>
       <c r="I187" t="n">
         <v>4</v>
@@ -14147,10 +13791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:12:40</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44372.59212962963</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14226,10 +13868,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:47</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44372.59151620371</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14293,10 +13933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:39</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44372.59142361111</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14372,10 +14010,8 @@
           <t>4788510163</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:19</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44372.59119212963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14443,10 +14079,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:10:57</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44372.5909375</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14510,10 +14144,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:10:32</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44372.59064814815</v>
       </c>
       <c r="I193" t="n">
         <v>4</v>
@@ -14589,10 +14221,8 @@
           <t>4788791329</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:10:13</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44372.59042824074</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14660,10 +14290,8 @@
           <t>4788510163</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:07</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44372.58966435185</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14739,10 +14367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:11</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44372.5890162037</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14818,10 +14444,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:06:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44372.58788194445</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14885,10 +14509,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:06:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44372.58767361111</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14964,10 +14586,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:05:58</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44372.58747685186</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15031,10 +14651,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:31</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44372.58646990741</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15102,10 +14720,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:25</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44372.58570601852</v>
       </c>
       <c r="I201" t="n">
         <v>6</v>
@@ -15173,10 +14789,8 @@
           <t>4788710956</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:23</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44372.58568287037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15252,10 +14866,8 @@
           <t>4788578922</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:09</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44372.58552083333</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15323,10 +14935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:02:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44372.58480324074</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15398,10 +15008,8 @@
           <t>4788710956</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:48</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44372.58458333334</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15469,10 +15077,8 @@
           <t>4788754336</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:44</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44372.58453703704</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15540,10 +15146,8 @@
           <t>4788749057</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:29</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44372.58436342593</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15615,10 +15219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:54:26</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44372.57946759259</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15694,10 +15296,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:54:04</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44372.57921296296</v>
       </c>
       <c r="I209" t="n">
         <v>9</v>
@@ -15773,10 +15373,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:04</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44372.57712962963</v>
       </c>
       <c r="I210" t="n">
         <v>17</v>
@@ -15836,10 +15434,8 @@
           <t>4788710956</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:41</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44372.57686342593</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15911,10 +15507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:15</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44372.5765625</v>
       </c>
       <c r="I212" t="n">
         <v>8</v>
@@ -15982,10 +15576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:49:49</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44372.57626157408</v>
       </c>
       <c r="I213" t="n">
         <v>276</v>
@@ -16053,10 +15645,8 @@
           <t>4788414629</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:19</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44372.5752199074</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16124,10 +15714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:00</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44372.575</v>
       </c>
       <c r="I215" t="n">
         <v>28</v>
@@ -16199,10 +15787,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:42</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44372.57409722222</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16266,10 +15852,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:17</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44372.57380787037</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16345,10 +15929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:45:49</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44372.5734837963</v>
       </c>
       <c r="I218" t="n">
         <v>13</v>
@@ -16424,10 +16006,8 @@
           <t>4788683607</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:45:31</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44372.57327546296</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16495,10 +16075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:57</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44372.57288194444</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16562,10 +16140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:20</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44372.5724537037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16641,10 +16217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:43:28</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44372.57185185186</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16720,10 +16294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:42:28</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44372.57115740741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16799,10 +16371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:42:26</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44372.57113425926</v>
       </c>
       <c r="I224" t="n">
         <v>11</v>
@@ -16870,10 +16440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:41:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44372.57039351852</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16949,10 +16517,8 @@
           <t>4788667497</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:41:17</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44372.57033564815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17024,10 +16590,8 @@
           <t>4788487356</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:40:14</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44372.56960648148</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17099,10 +16663,8 @@
           <t>4788661776</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:14</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44372.56891203704</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17178,10 +16740,8 @@
           <t>4788656866</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:38:51</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44372.56864583334</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17257,10 +16817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:38:15</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44372.56822916667</v>
       </c>
       <c r="I230" t="n">
         <v>24</v>
@@ -17332,10 +16890,8 @@
           <t>4788438351</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:37:42</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44372.56784722222</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17411,10 +16967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:55</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44372.56730324074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17482,10 +17036,8 @@
           <t>4788643067</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:18</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44372.566875</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17549,10 +17101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:06</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44372.56673611111</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17616,10 +17166,8 @@
           <t>4788634230</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:34:18</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44372.56548611111</v>
       </c>
       <c r="I235" t="n">
         <v>6</v>
@@ -17683,10 +17231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:34:01</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44372.56528935185</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17758,10 +17304,8 @@
           <t>4788624652</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:32:32</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44372.56425925926</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17837,10 +17381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:32:29</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44372.56422453704</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17912,10 +17454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:43</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44372.56369212963</v>
       </c>
       <c r="I239" t="n">
         <v>10</v>
@@ -17983,10 +17523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:33</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44372.56357638889</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18050,10 +17588,8 @@
           <t>4788623028</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44372.56348379629</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -18129,10 +17665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:15</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44372.56336805555</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18192,10 +17726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44372.56331018519</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18259,10 +17791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:46</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44372.56303240741</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18338,10 +17868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:43</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44372.56299768519</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18417,10 +17945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:41</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44372.56297453704</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18484,10 +18010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:34</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44372.56289351852</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18563,10 +18087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:26</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44372.56280092592</v>
       </c>
       <c r="I248" t="n">
         <v>13</v>
@@ -18634,10 +18156,8 @@
           <t>4788586158</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:17</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44372.56269675926</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18705,10 +18225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44372.56234953704</v>
       </c>
       <c r="I250" t="n">
         <v>7</v>
@@ -18772,10 +18290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:35</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44372.56221064815</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18843,10 +18359,8 @@
           <t>4788586561</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44372.56077546296</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18922,10 +18436,8 @@
           <t>4788606759</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:14</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44372.56057870371</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18993,10 +18505,8 @@
           <t>4788598826</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:59</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44372.56040509259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19072,10 +18582,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:54</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44372.56034722222</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -19147,10 +18655,8 @@
           <t>4788600746</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:47</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44372.55957175926</v>
       </c>
       <c r="I256" t="n">
         <v>5</v>
@@ -19222,10 +18728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:45</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44372.55954861111</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19289,10 +18793,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:41</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44372.55950231481</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19356,10 +18858,8 @@
           <t>4788586158</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:57</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44372.55899305556</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19431,10 +18931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:35</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44372.55873842593</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19502,10 +19000,8 @@
           <t>4788591254</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:39</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44372.55809027778</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19565,10 +19061,8 @@
           <t>4788587117</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:30</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44372.55798611111</v>
       </c>
       <c r="I262" t="n">
         <v>4</v>
@@ -19640,10 +19134,8 @@
           <t>4788557489</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:15</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44372.5578125</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19703,10 +19195,8 @@
           <t>4788586561</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:11</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44372.5577662037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19778,10 +19268,8 @@
           <t>4788586158</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:06</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44372.55770833333</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19849,10 +19337,8 @@
           <t>4788586158</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:56</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44372.5575925926</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19924,10 +19410,8 @@
           <t>4788581749</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:33</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44372.55732638889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19991,10 +19475,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:32</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44372.55731481482</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20058,10 +19540,8 @@
           <t>4788578922</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:09</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44372.55704861111</v>
       </c>
       <c r="I269" t="n">
         <v>20</v>
@@ -20133,10 +19613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:03</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44372.55697916666</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20212,10 +19690,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44372.55664351852</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20283,10 +19759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:06</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44372.55631944445</v>
       </c>
       <c r="I272" t="n">
         <v>250</v>
@@ -20358,10 +19832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:03</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44372.55628472222</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20433,10 +19905,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:28</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44372.55587962963</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20508,10 +19978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:26</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44372.55585648148</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20579,10 +20047,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:34</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44372.55525462963</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20654,10 +20120,8 @@
           <t>4788538010</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:31</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44372.55521990741</v>
       </c>
       <c r="I277" t="n">
         <v>17</v>
@@ -20729,10 +20193,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44372.55462962963</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20804,10 +20266,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:12</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44372.55430555555</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20871,10 +20331,8 @@
           <t>4788554110</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:55</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44372.5541087963</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20946,10 +20404,8 @@
           <t>4788557489</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44372.5540625</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21021,10 +20477,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:16:13</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44372.55292824074</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -21096,10 +20550,8 @@
           <t>4788538010</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:43</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44372.55258101852</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21171,10 +20623,8 @@
           <t>4788419301</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:37</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44372.55251157407</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21250,10 +20700,8 @@
           <t>4788548161</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:19</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44372.55230324074</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21330,10 +20778,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:12</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44372.55222222222</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21397,10 +20843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:06</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44372.55215277777</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21476,10 +20920,8 @@
           <t>4788538010</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:17</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44372.55158564815</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21543,10 +20985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:11</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44372.55082175926</v>
       </c>
       <c r="I289" t="n">
         <v>179</v>
@@ -21622,10 +21062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:07</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44372.55077546297</v>
       </c>
       <c r="I290" t="n">
         <v>4</v>
@@ -21697,10 +21135,8 @@
           <t>4788535902</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:04</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44372.55074074074</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21764,10 +21200,8 @@
           <t>4788518557</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:42</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44372.55048611111</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21839,10 +21273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:33</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44372.55038194444</v>
       </c>
       <c r="I293" t="n">
         <v>4</v>
@@ -21918,10 +21350,8 @@
           <t>4788532857</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:16</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44372.55018518519</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21993,10 +21423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:14</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44372.55016203703</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22056,10 +21484,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:08</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44372.5500925926</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22123,10 +21549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:37</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44372.5497337963</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22198,10 +21622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:01</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44372.54931712963</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22265,10 +21687,8 @@
           <t>4788518557</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:31</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44372.54896990741</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22340,10 +21760,8 @@
           <t>4788519491</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44372.54887731482</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22415,10 +21833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:16</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44372.54879629629</v>
       </c>
       <c r="I301" t="n">
         <v>5</v>
@@ -22490,10 +21906,8 @@
           <t>4788518557</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44372.54850694445</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22565,10 +21979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:44</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44372.54842592592</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22636,10 +22048,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:33</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44372.54829861111</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22703,10 +22113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:31</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44372.54827546296</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22778,10 +22186,8 @@
           <t>4788517883</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:30</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44372.54826388889</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22853,10 +22259,8 @@
           <t>4788517618</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:20</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44372.54814814815</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22928,10 +22332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44372.548125</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22999,10 +22401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:54</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44372.54784722222</v>
       </c>
       <c r="I309" t="n">
         <v>12</v>
@@ -23078,10 +22478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:50</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44372.54780092592</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23149,10 +22547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44372.54773148148</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23216,10 +22612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:37</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44372.54765046296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23295,10 +22689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:33</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44372.54760416667</v>
       </c>
       <c r="I313" t="n">
         <v>39</v>
@@ -23374,10 +22766,8 @@
           <t>4788516062</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:29</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44372.54755787037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23449,10 +22839,8 @@
           <t>4788507716</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:20</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44372.5474537037</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23548,10 +22936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:05</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44372.54728009259</v>
       </c>
       <c r="I316" t="n">
         <v>15</v>
@@ -23623,10 +23009,8 @@
           <t>4788511076</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:00</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44372.54722222222</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23694,10 +23078,8 @@
           <t>4788506858</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:07:49</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44372.54709490741</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23773,10 +23155,8 @@
           <t>4788449893</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:07:42</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44372.54701388889</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23844,10 +23224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:07:33</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44372.54690972222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23911,10 +23289,8 @@
           <t>4788449893</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:07:29</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44372.54686342592</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23990,10 +23366,8 @@
           <t>4788510163</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:07:28</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44372.54685185185</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24061,10 +23435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44372.54646990741</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24140,10 +23512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:39</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44372.54628472222</v>
       </c>
       <c r="I324" t="n">
         <v>16</v>
@@ -24207,10 +23577,8 @@
           <t>4788502693</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44372.54628472222</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24282,10 +23650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44372.54614583333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24353,10 +23719,8 @@
           <t>4788501855</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:11</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44372.54596064815</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24420,10 +23784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:09</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44372.5459375</v>
       </c>
       <c r="I328" t="n">
         <v>146</v>
@@ -24495,10 +23857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:06:02</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44372.54585648148</v>
       </c>
       <c r="I329" t="n">
         <v>15</v>
@@ -24562,10 +23922,8 @@
           <t>4788501478</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:58</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44372.54581018518</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24641,10 +23999,8 @@
           <t>4788501272</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:51</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44372.54572916667</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24708,10 +24064,8 @@
           <t>4788500134</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:16</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44372.54532407408</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24787,10 +24141,8 @@
           <t>4788460683</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:13</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44372.54528935185</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24854,10 +24206,8 @@
           <t>4788431315</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:10</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44372.54525462963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24925,10 +24275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:05:00</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44372.54513888889</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -25000,10 +24348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:04:53</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44372.54505787037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25079,10 +24425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:04:37</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44372.54487268518</v>
       </c>
       <c r="I337" t="n">
         <v>25</v>
@@ -25150,10 +24494,8 @@
           <t>4788491069</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:04:35</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44372.54484953704</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25217,10 +24559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:04:29</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44372.54478009259</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25280,10 +24620,8 @@
           <t>4788490282</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:04:07</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44372.54452546296</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25351,10 +24689,8 @@
           <t>4788460683</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:03:56</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44372.54439814815</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25418,10 +24754,8 @@
           <t>4788487356</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:03:50</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44372.54432870371</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25493,10 +24827,8 @@
           <t>4788483539</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:03:36</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44372.54416666667</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25572,10 +24904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:03:17</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44372.54394675926</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25651,10 +24981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:02:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44372.54361111111</v>
       </c>
       <c r="I345" t="n">
         <v>5</v>
@@ -25714,10 +25042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:02:47</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44372.54359953704</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25793,10 +25119,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:02:13</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44372.54320601852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25860,10 +25184,8 @@
           <t>4788476696</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:02:10</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44372.5431712963</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25931,10 +25253,8 @@
           <t>4788476185</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:01:55</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44372.54299768519</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26003,10 +25323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:01:31</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44372.5427199074</v>
       </c>
       <c r="I350" t="n">
         <v>30</v>
@@ -26070,10 +25388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:01:18</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44372.54256944444</v>
       </c>
       <c r="I351" t="n">
         <v>15</v>
@@ -26149,10 +25465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:01:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44372.54243055556</v>
       </c>
       <c r="I352" t="n">
         <v>15</v>
@@ -26220,10 +25534,8 @@
           <t>4788464099</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:50</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44372.54224537037</v>
       </c>
       <c r="I353" t="n">
         <v>5</v>
@@ -26289,10 +25601,8 @@
           <t>4788471269</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:40</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44372.54212962963</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26356,10 +25666,8 @@
           <t>4788463682</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:36</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44372.54208333333</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26419,10 +25727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:24</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44372.54194444444</v>
       </c>
       <c r="I356" t="n">
         <v>9</v>
@@ -26486,10 +25792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:23</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44372.54193287037</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26553,10 +25857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:15</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44372.54184027778</v>
       </c>
       <c r="I358" t="n">
         <v>6</v>
@@ -26625,10 +25927,8 @@
           <t>4788470437</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:13</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44372.54181712963</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26693,10 +25993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:09</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44372.54177083333</v>
       </c>
       <c r="I360" t="n">
         <v>32</v>
@@ -26760,10 +26058,8 @@
           <t>4788461782</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:06</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44372.54173611111</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26839,10 +26135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:04</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44372.54171296296</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -26910,10 +26204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:04</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44372.54171296296</v>
       </c>
       <c r="I363" t="n">
         <v>5</v>
@@ -26985,10 +26277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:00:00</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44372.54166666666</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27064,10 +26354,8 @@
           <t>4788467136</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:58</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44372.54164351852</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27131,10 +26419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44372.54145833333</v>
       </c>
       <c r="I366" t="n">
         <v>8</v>
@@ -27206,10 +26492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44372.54144675926</v>
       </c>
       <c r="I367" t="n">
         <v>8</v>
@@ -27281,10 +26565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:31</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44372.54133101852</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27357,10 +26639,8 @@
           <t>4788444795</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:26</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44372.54127314815</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -27420,10 +26700,8 @@
           <t>4788458751</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:19</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44372.54119212963</v>
       </c>
       <c r="I370" t="n">
         <v>7</v>
@@ -27487,10 +26765,8 @@
           <t>4788461355</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:19</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44372.54119212963</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27558,10 +26834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:59:12</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44372.54111111111</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27637,10 +26911,8 @@
           <t>4788460683</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:57</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44372.5409375</v>
       </c>
       <c r="I373" t="n">
         <v>5</v>
@@ -27704,10 +26976,8 @@
           <t>4788434011</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:55</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44372.54091435186</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27775,10 +27045,8 @@
           <t>4788460180</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:41</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44372.54075231482</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27850,10 +27118,8 @@
           <t>4788449893</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:40</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44372.54074074074</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -27925,10 +27191,8 @@
           <t>4788431315</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:32</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44372.54064814815</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -28000,10 +27264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:23</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44372.54054398148</v>
       </c>
       <c r="I378" t="n">
         <v>62</v>
@@ -28067,10 +27329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:20</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44372.54050925926</v>
       </c>
       <c r="I379" t="n">
         <v>13</v>
@@ -28134,10 +27394,8 @@
           <t>4788449286</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:18</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44372.54048611111</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28205,10 +27463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:17</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44372.54047453704</v>
       </c>
       <c r="I381" t="n">
         <v>11</v>
@@ -28276,10 +27532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:16</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44372.54046296296</v>
       </c>
       <c r="I382" t="n">
         <v>59</v>
@@ -28347,10 +27601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:16</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44372.54046296296</v>
       </c>
       <c r="I383" t="n">
         <v>3</v>
@@ -28414,10 +27666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:58:02</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44372.54030092592</v>
       </c>
       <c r="I384" t="n">
         <v>3</v>
@@ -28489,10 +27739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:56</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44372.54023148148</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28567,10 +27815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:55</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44372.54021990741</v>
       </c>
       <c r="I386" t="n">
         <v>12</v>
@@ -28646,10 +27892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:43</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44372.54008101852</v>
       </c>
       <c r="I387" t="n">
         <v>8</v>
@@ -28713,10 +27957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:36</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44372.54</v>
       </c>
       <c r="I388" t="n">
         <v>16</v>
@@ -28784,10 +28026,8 @@
           <t>4788447618</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:21</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44372.53982638889</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28855,10 +28095,8 @@
           <t>4788444795</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:14</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44372.53974537037</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -28934,10 +28172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:57:04</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44372.53962962963</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -29017,10 +28253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44372.53943287037</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29096,10 +28330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:42</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44372.539375</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29175,10 +28407,8 @@
           <t>4788438351</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:41</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44372.53936342592</v>
       </c>
       <c r="I394" t="n">
         <v>20</v>
@@ -29287,10 +28517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:36</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44372.53930555555</v>
       </c>
       <c r="I395" t="n">
         <v>21</v>
@@ -29369,10 +28597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:32</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44372.53925925926</v>
       </c>
       <c r="I396" t="n">
         <v>13</v>
@@ -29448,10 +28674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:13</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44372.53903935185</v>
       </c>
       <c r="I397" t="n">
         <v>53</v>
@@ -29527,10 +28751,8 @@
           <t>4788431315</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:56:09</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44372.53899305555</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29594,10 +28816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:45</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44372.53871527778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29657,10 +28877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:39</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44372.53864583333</v>
       </c>
       <c r="I400" t="n">
         <v>14</v>
@@ -29736,10 +28954,8 @@
           <t>4788441703</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:37</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44372.53862268518</v>
       </c>
       <c r="I401" t="n">
         <v>27</v>
@@ -29815,10 +29031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:30</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44372.53854166667</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29882,10 +29096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44372.5384375</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29953,10 +29165,8 @@
           <t>4788434011</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:55:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44372.53839120371</v>
       </c>
       <c r="I404" t="n">
         <v>7</v>
@@ -30024,10 +29234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:54:54</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44372.538125</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30091,10 +29299,8 @@
           <t>4788431315</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:54:35</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44372.53790509259</v>
       </c>
       <c r="I406" t="n">
         <v>9</v>
@@ -30170,10 +29376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:54:23</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44372.53776620371</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30238,10 +29442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:54:02</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44372.53752314814</v>
       </c>
       <c r="I408" t="n">
         <v>7</v>
@@ -30313,10 +29515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:59</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44372.53748842593</v>
       </c>
       <c r="I409" t="n">
         <v>180</v>
@@ -30376,10 +29576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:52</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44372.53740740741</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30443,10 +29641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:49</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44372.53737268518</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30518,10 +29714,8 @@
           <t>4788431315</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:44</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44372.53731481481</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30605,10 +29799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:42</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44372.53729166667</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30668,10 +29860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:53:31</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44372.53716435185</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30731,10 +29921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:52:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44372.53678240741</v>
       </c>
       <c r="I415" t="n">
         <v>10</v>
@@ -30798,10 +29986,8 @@
           <t>4788419301</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:52:33</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44372.53649305556</v>
       </c>
       <c r="I416" t="n">
         <v>5</v>
@@ -30873,10 +30059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:52:15</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44372.53628472222</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -30944,10 +30128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:52:03</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44372.53614583334</v>
       </c>
       <c r="I418" t="n">
         <v>7</v>
@@ -31011,10 +30193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:54</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44372.53604166667</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31090,10 +30270,8 @@
           <t>4788414629</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:54</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44372.53604166667</v>
       </c>
       <c r="I420" t="n">
         <v>13</v>
@@ -31161,10 +30339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:52</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44372.53601851852</v>
       </c>
       <c r="I421" t="n">
         <v>105</v>
@@ -31224,10 +30400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:41</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44372.5358912037</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31293,10 +30467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:36</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44372.53583333334</v>
       </c>
       <c r="I423" t="n">
         <v>57</v>
@@ -31365,10 +30537,8 @@
           <t>4788417476</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:29</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44372.53575231481</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31428,10 +30598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:17</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44372.53561342593</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31503,10 +30671,8 @@
           <t>4788417145</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:51:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44372.53561342593</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31574,10 +30740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:50:58</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44372.53539351852</v>
       </c>
       <c r="I427" t="n">
         <v>5</v>
@@ -31653,10 +30817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:50:58</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44372.53539351852</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31728,10 +30890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:50:40</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44372.53518518519</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31795,10 +30955,8 @@
           <t>4788420170</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:50:33</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44372.53510416667</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31858,10 +31016,8 @@
           <t>4788409410</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:50:10</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44372.53483796296</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31921,10 +31077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:40</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44372.53449074074</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31996,10 +31150,8 @@
           <t>4788404087</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:33</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44372.53440972222</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32075,10 +31227,8 @@
           <t>4788399872</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:29</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44372.53436342593</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32150,10 +31300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:26</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44372.5343287037</v>
       </c>
       <c r="I435" t="n">
         <v>103</v>
@@ -32225,10 +31373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:18</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44372.53423611111</v>
       </c>
       <c r="I436" t="n">
         <v>35</v>
@@ -32304,10 +31450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:18</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44372.53423611111</v>
       </c>
       <c r="I437" t="n">
         <v>6</v>
@@ -32379,10 +31523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:49:17</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44372.53422453703</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32450,10 +31592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:55</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44372.53396990741</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32517,10 +31657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:55</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44372.53396990741</v>
       </c>
       <c r="I440" t="n">
         <v>416</v>
@@ -32592,10 +31730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:55</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44372.53396990741</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32671,10 +31807,8 @@
           <t>4788402624</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:43</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44372.53383101852</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -32750,10 +31884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:36</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44372.53375</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32821,10 +31953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:33</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44372.53371527778</v>
       </c>
       <c r="I444" t="n">
         <v>59</v>
@@ -32919,10 +32049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:26</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44372.53363425926</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32998,10 +32126,8 @@
           <t>4788402024</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:23</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44372.53359953704</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33069,10 +32195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:19</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44372.53355324074</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33144,10 +32268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:14</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44372.53349537037</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33211,10 +32333,8 @@
           <t>4788405544</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:48:09</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44372.5334375</v>
       </c>
       <c r="I449" t="n">
         <v>3</v>
@@ -33290,10 +32410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:59</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44372.53332175926</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33361,10 +32479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:52</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44372.53324074074</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33440,10 +32556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:51</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44372.53322916666</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33503,10 +32617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:50</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44372.53321759259</v>
       </c>
       <c r="I453" t="n">
         <v>52</v>
@@ -33574,10 +32686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:49</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44372.53320601852</v>
       </c>
       <c r="I454" t="n">
         <v>3</v>
@@ -33649,10 +32759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:45</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44372.53315972222</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33728,10 +32836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:44</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44372.53314814815</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33802,10 +32908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44372.53311342592</v>
       </c>
       <c r="I457" t="n">
         <v>12</v>
@@ -33877,10 +32981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44372.53305555556</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33952,10 +33054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:32</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44372.53300925926</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34019,10 +33119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:31</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44372.53299768519</v>
       </c>
       <c r="I460" t="n">
         <v>5</v>
@@ -34086,10 +33184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:25</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44372.53292824074</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34165,10 +33261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:24</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44372.53291666666</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34236,10 +33330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:22</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44372.53289351852</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34312,10 +33404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:14</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44372.53280092592</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34391,10 +33481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:04</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44372.53268518519</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34458,10 +33546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:47:00</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44372.53263888889</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34537,10 +33623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:55</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44372.53258101852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34616,10 +33700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:52</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44372.53254629629</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34687,10 +33769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:50</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44372.53252314815</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34758,10 +33838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:49</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44372.53251157407</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34825,10 +33903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:48</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44372.5325</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34892,10 +33968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:48</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44372.5325</v>
       </c>
       <c r="I472" t="n">
         <v>75</v>
@@ -34959,10 +34033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:47</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44372.53248842592</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35034,10 +34106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:43</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44372.53244212963</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35101,10 +34171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:43</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44372.53244212963</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35168,10 +34236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:41</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44372.53241898148</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35247,10 +34313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:41</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44372.53241898148</v>
       </c>
       <c r="I477" t="n">
         <v>11</v>
@@ -35326,10 +34390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:41</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44372.53241898148</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35401,10 +34463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:40</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44372.53240740741</v>
       </c>
       <c r="I479" t="n">
         <v>54</v>
@@ -35468,10 +34528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:39</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44372.53239583333</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35543,10 +34601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:38</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44372.53238425926</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35610,10 +34666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:38</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44372.53238425926</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35689,10 +34743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:37</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44372.53237268519</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35760,10 +34812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:35</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44372.53234953704</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35827,10 +34877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:33</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44372.53232638889</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35898,10 +34946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:30</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44372.53229166667</v>
       </c>
       <c r="I486" t="n">
         <v>280</v>
@@ -35980,10 +35026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:27</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44372.53225694445</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36055,10 +35099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:25</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44372.53223379629</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36126,10 +35168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:24</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44372.53222222222</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36197,10 +35237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:21</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44372.5321875</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36264,10 +35302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:17</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44372.5321412037</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36339,10 +35375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:46:12</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44372.53208333333</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36418,10 +35452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:45:58</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44372.53192129629</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
